--- a/BOM/H7864 BOM 2021.xlsx
+++ b/BOM/H7864 BOM 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\VAX Museum\Projects\H7864\Production File\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B5E574-A892-479B-81B4-5B3C4C6CAEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95A7A4-4D0E-4901-A735-A87E20DDBA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t>CRCW0805383RFKEA</t>
   </si>
   <si>
-    <t>SN74AHCT14D</t>
-  </si>
-  <si>
     <t>LTV816</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>471KD10</t>
+  </si>
+  <si>
+    <t>SN74HC14N</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1621,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="31"/>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="D8" s="39">
         <f ca="1">TODAY()</f>
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="E8" s="40">
         <f ca="1">NOW()</f>
-        <v>44889.700139699074</v>
+        <v>44890.579865046297</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="34"/>
@@ -1761,16 +1761,16 @@
         <v>86</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1786,10 +1786,10 @@
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="52">
         <v>1</v>
@@ -1807,11 +1807,11 @@
         <v>88</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="53">
         <v>1</v>
@@ -1830,10 +1830,10 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="52">
         <v>1</v>
@@ -1851,13 +1851,13 @@
         <v>90</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="53">
         <v>1</v>
@@ -1875,13 +1875,13 @@
         <v>91</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="52">
         <v>1</v>
@@ -1899,10 +1899,10 @@
         <v>92</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>92</v>
@@ -1923,7 +1923,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48" t="s">
@@ -1945,10 +1945,10 @@
         <v>93</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>93</v>
@@ -1969,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="48" t="s">
@@ -1991,7 +1991,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51" t="s">
@@ -2013,10 +2013,10 @@
         <v>93</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>93</v>
@@ -2037,10 +2037,10 @@
         <v>92</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>92</v>
@@ -2061,13 +2061,13 @@
         <v>65600001009</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="52">
         <v>1</v>
@@ -2087,7 +2087,7 @@
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="53">
         <v>1</v>
@@ -2107,7 +2107,7 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="52">
         <v>1</v>
@@ -2127,7 +2127,7 @@
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="53">
         <v>1</v>
@@ -2142,14 +2142,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="52">
         <v>1</v>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="53">
         <v>1</v>
@@ -2184,14 +2184,14 @@
         <v>49</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="52">
         <v>1</v>
@@ -2209,11 +2209,11 @@
         <v>96</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="53">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H32" s="52">
         <v>1</v>
@@ -2293,7 +2293,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="53">
         <v>1</v>
@@ -2305,19 +2305,19 @@
         <v>25</v>
       </c>
       <c r="C34" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>156</v>
-      </c>
       <c r="F34" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="52">
         <v>1</v>
@@ -2335,11 +2335,11 @@
         <v>61300211121</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="53">
         <v>1</v>
@@ -2377,11 +2377,11 @@
         <v>61300211121</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="53">
         <v>1</v>
@@ -2419,11 +2419,11 @@
         <v>61300211121</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H39" s="53">
         <v>1</v>
@@ -2441,13 +2441,13 @@
         <v>61300211121</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="52">
         <v>1</v>
@@ -2465,7 +2465,7 @@
         <v>99</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51" t="s">
@@ -2487,7 +2487,7 @@
         <v>99</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48" t="s">
@@ -2509,7 +2509,7 @@
         <v>99</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51" t="s">
@@ -2531,13 +2531,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="52">
         <v>1</v>
@@ -2555,11 +2555,11 @@
         <v>101</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" s="53">
         <v>1</v>
@@ -2577,13 +2577,13 @@
         <v>102</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="52">
         <v>1</v>
@@ -2601,13 +2601,13 @@
         <v>103</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H47" s="53">
         <v>1</v>
@@ -2625,11 +2625,11 @@
         <v>101</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" s="52">
         <v>1</v>
@@ -2647,13 +2647,13 @@
         <v>102</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="53">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>104</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="48">
@@ -2693,13 +2693,13 @@
         <v>105</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="53">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>104</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48">
@@ -2739,7 +2739,7 @@
         <v>106</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51">
@@ -2761,13 +2761,13 @@
         <v>105</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H54" s="52">
         <v>1</v>
@@ -2785,13 +2785,13 @@
         <v>103</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H55" s="53">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>107</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="48">
@@ -2831,11 +2831,11 @@
         <v>108</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H57" s="53">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>104</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48">
@@ -2875,7 +2875,7 @@
         <v>107</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51">
@@ -2897,11 +2897,11 @@
         <v>101</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" s="52">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>109</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51">
@@ -2941,11 +2941,11 @@
         <v>101</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="48"/>
       <c r="G62" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" s="52">
         <v>1</v>
@@ -2960,16 +2960,16 @@
         <v>83</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H63" s="53">
         <v>1</v>
@@ -2984,16 +2984,16 @@
         <v>84</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H64" s="52">
         <v>1</v>
@@ -3009,13 +3009,13 @@
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" s="53">
         <v>1</v>
@@ -3050,7 +3050,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="15"/>
       <c r="B68" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -3157,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -3197,7 +3197,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -3205,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -3221,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -3229,7 +3229,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
